--- a/blacklist.xlsx
+++ b/blacklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebcollins/Documents/Letterboxd List Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A458F82-8D12-0B48-9B57-A4EC30CA0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB2C916-3E72-7D49-ABC3-F68F1EB8315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15607" uniqueCount="10369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15633" uniqueCount="10387">
   <si>
     <t>Title</t>
   </si>
@@ -31127,6 +31127,60 @@
   </si>
   <si>
     <t>https://letterboxd.com/film/doctor-who-the-greatest-show-in-the-galaxy/</t>
+  </si>
+  <si>
+    <t>Oklahoma!</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/oklahoma-1999/</t>
+  </si>
+  <si>
+    <t>Slaps and Kisses: The Great Reunion</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/slaps-kisses-the-great-reunion/</t>
+  </si>
+  <si>
+    <t>No Longer Kids</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/no-longer-kids/</t>
+  </si>
+  <si>
+    <t>Invincible: Atom Eve</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/invincible-atom-eve/</t>
+  </si>
+  <si>
+    <t>Sherlock: The Blind Banker</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/sherlock-the-blind-banker/</t>
+  </si>
+  <si>
+    <t>The Jacksons: An American Dream</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-jacksons-an-american-dream/</t>
+  </si>
+  <si>
+    <t>D'Artagnan and Three Musketeers</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/dartagnan-and-three-musketeers/</t>
+  </si>
+  <si>
+    <t>Fantomas: Juve Against Fantomas</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/fantomas-juve-against-fantomas/</t>
+  </si>
+  <si>
+    <t>The Mentalist</t>
+  </si>
+  <si>
+    <t>https://letterboxd.com/film/the-mentalist/</t>
   </si>
 </sst>
 </file>
@@ -31490,10 +31544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5116"/>
+  <dimension ref="A1:D5125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5101" workbookViewId="0">
-      <selection activeCell="N5117" sqref="N5117"/>
+    <sheetView tabSelected="1" topLeftCell="A5095" workbookViewId="0">
+      <selection activeCell="N5120" sqref="N5120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -88630,7 +88684,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="5116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5116" t="s">
         <v>10367</v>
       </c>
@@ -88639,6 +88693,105 @@
       </c>
       <c r="D5116" t="s">
         <v>10368</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5117" t="s">
+        <v>10369</v>
+      </c>
+      <c r="B5117">
+        <v>1999</v>
+      </c>
+      <c r="D5117" t="s">
+        <v>10370</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5118" t="s">
+        <v>10371</v>
+      </c>
+      <c r="B5118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5118" t="s">
+        <v>10372</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5119" t="s">
+        <v>10373</v>
+      </c>
+      <c r="B5119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5119" t="s">
+        <v>10374</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5120" t="s">
+        <v>10375</v>
+      </c>
+      <c r="B5120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5120" t="s">
+        <v>10376</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5121" t="s">
+        <v>10377</v>
+      </c>
+      <c r="B5121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5121" t="s">
+        <v>10378</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5122" t="s">
+        <v>10379</v>
+      </c>
+      <c r="B5122" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5122" t="s">
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5123" t="s">
+        <v>10381</v>
+      </c>
+      <c r="B5123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5123" t="s">
+        <v>10382</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5124" t="s">
+        <v>10383</v>
+      </c>
+      <c r="B5124" t="s">
+        <v>7086</v>
+      </c>
+      <c r="D5124" t="s">
+        <v>10384</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5125" t="s">
+        <v>10385</v>
+      </c>
+      <c r="B5125" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5125" t="s">
+        <v>10386</v>
       </c>
     </row>
   </sheetData>
